--- a/08kappa/fee_tagger_dataframe_kappa.xlsx
+++ b/08kappa/fee_tagger_dataframe_kappa.xlsx
@@ -22,67 +22,67 @@
     <t>kappa</t>
   </si>
   <si>
+    <t>szaman@purdue.edu</t>
+  </si>
+  <si>
+    <t>zhan2016@purdue.edu</t>
+  </si>
+  <si>
+    <t>liu1417@purdue.edu</t>
+  </si>
+  <si>
+    <t>schwenk@purdue.edu</t>
+  </si>
+  <si>
+    <t>vbrank@purdue.edu</t>
+  </si>
+  <si>
+    <t>wu650@purdue.edu</t>
+  </si>
+  <si>
+    <t>zhan1565@purdue.edu</t>
+  </si>
+  <si>
+    <t>kshatkus@purdue.edu</t>
+  </si>
+  <si>
     <t>fu58@purdue.edu</t>
   </si>
   <si>
+    <t>wei97@purdue.edu</t>
+  </si>
+  <si>
+    <t>cbbaird@purdue.edu</t>
+  </si>
+  <si>
+    <t>miao14@purdue.edu</t>
+  </si>
+  <si>
+    <t>jmccror@purdue.edu</t>
+  </si>
+  <si>
+    <t>wang1509@purdue.edu</t>
+  </si>
+  <si>
+    <t>bbrumfi@purdue.edu</t>
+  </si>
+  <si>
+    <t>kim1845@purdue.edu</t>
+  </si>
+  <si>
     <t>dean24@purdue.edu</t>
   </si>
   <si>
+    <t>mspanier@purdue.edu</t>
+  </si>
+  <si>
+    <t>john1300@purdue.edu</t>
+  </si>
+  <si>
+    <t>zhu488@purdue.edu</t>
+  </si>
+  <si>
     <t>yan125@purdue.edu</t>
-  </si>
-  <si>
-    <t>wu650@purdue.edu</t>
-  </si>
-  <si>
-    <t>schwenk@purdue.edu</t>
-  </si>
-  <si>
-    <t>wang1509@purdue.edu</t>
-  </si>
-  <si>
-    <t>miao14@purdue.edu</t>
-  </si>
-  <si>
-    <t>jmccror@purdue.edu</t>
-  </si>
-  <si>
-    <t>zhu488@purdue.edu</t>
-  </si>
-  <si>
-    <t>zhan1565@purdue.edu</t>
-  </si>
-  <si>
-    <t>kim1845@purdue.edu</t>
-  </si>
-  <si>
-    <t>liu1417@purdue.edu</t>
-  </si>
-  <si>
-    <t>bbrumfi@purdue.edu</t>
-  </si>
-  <si>
-    <t>kshatkus@purdue.edu</t>
-  </si>
-  <si>
-    <t>vbrank@purdue.edu</t>
-  </si>
-  <si>
-    <t>mspanier@purdue.edu</t>
-  </si>
-  <si>
-    <t>zhan2016@purdue.edu</t>
-  </si>
-  <si>
-    <t>cbbaird@purdue.edu</t>
-  </si>
-  <si>
-    <t>szaman@purdue.edu</t>
-  </si>
-  <si>
-    <t>john1300@purdue.edu</t>
-  </si>
-  <si>
-    <t>wei97@purdue.edu</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.818181818181818</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -473,7 +473,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.821052631578947</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -484,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.805970149253731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.842105263157895</v>
+        <v>0.831168831168831</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.831168831168831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -517,7 +517,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.842105263157895</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -528,7 +528,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.849557522123894</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -550,7 +550,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.837209302325581</v>
+        <v>0.818181818181818</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.813559322033898</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -572,7 +572,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.837209302325581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -583,7 +583,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.849557522123894</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -627,7 +627,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0.837209302325581</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -638,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.821052631578947</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -660,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0.805970149253731</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -671,7 +671,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.805970149253731</v>
+        <v>0.837209302325581</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -682,7 +682,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.813559322033898</v>
+        <v>0.805970149253731</v>
       </c>
     </row>
   </sheetData>
